--- a/Experiment result20140828.xlsx
+++ b/Experiment result20140828.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>WP1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,13 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SIFT+T</t>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MLN-based</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -50,27 +43,57 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M-HMP</t>
-  </si>
-  <si>
     <t>82.5±0.5</t>
-  </si>
-  <si>
-    <t>77.8 ± 0.56</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>67.7 (0.3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ImageNet-pretrained convnet</t>
   </si>
   <si>
-    <t>86.5 ± 0.5</t>
+    <t>M-HMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>77.1± 0.4</t>
+    <t>72.1± 0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calteck-256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LLC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P-FV</t>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P-LLC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J. Wang, J. Yang, K. Yu, F. Lv, T. Huang, and Y. Guo.
+Locality-constrained Linear Coding for Image Classiﬁca-
+tion. In CVPR, 2010. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local Pyramidal Descriptors for Image Recognition (PAMI 2013)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multipath Sparse Coding Using Hierarchical Matching Pursuit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Visualizing and Understanding Convolutional Networks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImageNet-pretrained convnet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -117,9 +140,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -812,11 +838,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="176951712"/>
-        <c:axId val="176952272"/>
+        <c:axId val="192924880"/>
+        <c:axId val="192925440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="176951712"/>
+        <c:axId val="192924880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -916,7 +942,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="176952272"/>
+        <c:crossAx val="192925440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -924,7 +950,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="176952272"/>
+        <c:axId val="192925440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1033,7 +1059,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="176951712"/>
+        <c:crossAx val="192924880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1441,8 +1467,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="217823456"/>
-        <c:axId val="217824016"/>
+        <c:axId val="234770880"/>
+        <c:axId val="234771440"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -1785,7 +1811,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="217823456"/>
+        <c:axId val="234770880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1885,7 +1911,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217824016"/>
+        <c:crossAx val="234771440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1893,7 +1919,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="217824016"/>
+        <c:axId val="234771440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2001,7 +2027,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217823456"/>
+        <c:crossAx val="234770880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2759,11 +2785,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="217829616"/>
-        <c:axId val="217830176"/>
+        <c:axId val="234777040"/>
+        <c:axId val="234777600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="217829616"/>
+        <c:axId val="234777040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2863,7 +2889,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217830176"/>
+        <c:crossAx val="234777600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2871,7 +2897,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="217830176"/>
+        <c:axId val="234777600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2980,7 +3006,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217829616"/>
+        <c:crossAx val="234777040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3393,11 +3419,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="217834656"/>
-        <c:axId val="217835216"/>
+        <c:axId val="234782080"/>
+        <c:axId val="234782640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="217834656"/>
+        <c:axId val="234782080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3497,7 +3523,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217835216"/>
+        <c:crossAx val="234782640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3505,7 +3531,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="217835216"/>
+        <c:axId val="234782640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3613,7 +3639,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217834656"/>
+        <c:crossAx val="234782080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6341,10 +6367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -7454,31 +7480,87 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="E75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="B76">
+        <v>30</v>
+      </c>
+      <c r="E76">
+        <v>15</v>
+      </c>
+      <c r="F76">
+        <v>30</v>
+      </c>
+      <c r="G76">
+        <v>45</v>
+      </c>
+      <c r="H76">
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="E77">
+        <v>58.1</v>
+      </c>
+      <c r="F77">
+        <v>62.5</v>
+      </c>
+      <c r="G77">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="H77">
+        <v>71.599999999999994</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>3</v>
-      </c>
-      <c r="B78" t="s">
         <v>10</v>
+      </c>
+      <c r="B78">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="E78">
+        <v>34.4</v>
+      </c>
+      <c r="F78">
+        <v>41.2</v>
+      </c>
+      <c r="G78">
+        <v>45.3</v>
+      </c>
+      <c r="H78">
+        <v>47.7</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>4</v>
-      </c>
-      <c r="B79" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="B79">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="E79" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79">
+        <v>44.86</v>
+      </c>
+      <c r="H79">
+        <v>52.59</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -7486,15 +7568,96 @@
         <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="E80">
+        <v>42.7</v>
+      </c>
+      <c r="F80">
+        <v>50.7</v>
+      </c>
+      <c r="G80">
+        <v>54.8</v>
+      </c>
+      <c r="H80">
+        <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81">
+        <v>78.75</v>
+      </c>
+      <c r="E81" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81">
+        <v>44.86</v>
+      </c>
+      <c r="H81">
+        <v>48.91</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" t="s">
+        <v>18</v>
+      </c>
+      <c r="B82">
+        <v>86.5</v>
+      </c>
+      <c r="E82">
+        <v>65.7</v>
+      </c>
+      <c r="F82">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="G82">
+        <v>72.7</v>
+      </c>
+      <c r="H82">
+        <v>74.2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="12" customHeight="1">
+      <c r="A84" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" t="s">
         <v>11</v>
       </c>
-      <c r="B81" t="s">
-        <v>12</v>
+      <c r="B85" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Experiment result20140828.xlsx
+++ b/Experiment result20140828.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29076" windowHeight="16476"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="29076" windowHeight="16476"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -75,12 +75,6 @@
     <t>P-LLC</t>
   </si>
   <si>
-    <t xml:space="preserve">J. Wang, J. Yang, K. Yu, F. Lv, T. Huang, and Y. Guo.
-Locality-constrained Linear Coding for Image Classiﬁca-
-tion. In CVPR, 2010. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Local Pyramidal Descriptors for Image Recognition (PAMI 2013)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,6 +88,12 @@
   </si>
   <si>
     <t>ImageNet-pretrained convnet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">J. Wang, J. Yang, K. Yu, F. Lv, T. Huang, and Y. Guo.
+Locality-constrained Linear Coding for Image Classiﬁca-
+tion. In CVPR, 2010. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -838,11 +838,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="192924880"/>
-        <c:axId val="192925440"/>
+        <c:axId val="195861424"/>
+        <c:axId val="195861984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="192924880"/>
+        <c:axId val="195861424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -942,7 +942,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192925440"/>
+        <c:crossAx val="195861984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -950,7 +950,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192925440"/>
+        <c:axId val="195861984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1059,7 +1059,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192924880"/>
+        <c:crossAx val="195861424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1467,8 +1467,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="234770880"/>
-        <c:axId val="234771440"/>
+        <c:axId val="238294720"/>
+        <c:axId val="238295280"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -1811,7 +1811,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="234770880"/>
+        <c:axId val="238294720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1911,7 +1911,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234771440"/>
+        <c:crossAx val="238295280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1919,7 +1919,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="234771440"/>
+        <c:axId val="238295280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2027,7 +2027,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234770880"/>
+        <c:crossAx val="238294720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2785,11 +2785,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="234777040"/>
-        <c:axId val="234777600"/>
+        <c:axId val="238300880"/>
+        <c:axId val="238301440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="234777040"/>
+        <c:axId val="238300880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2889,7 +2889,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234777600"/>
+        <c:crossAx val="238301440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2897,7 +2897,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="234777600"/>
+        <c:axId val="238301440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3006,7 +3006,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234777040"/>
+        <c:crossAx val="238300880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3419,11 +3419,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="234782080"/>
-        <c:axId val="234782640"/>
+        <c:axId val="238305920"/>
+        <c:axId val="238306480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="234782080"/>
+        <c:axId val="238305920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3523,7 +3523,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234782640"/>
+        <c:crossAx val="238306480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3531,7 +3531,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="234782640"/>
+        <c:axId val="238306480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3639,7 +3639,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234782080"/>
+        <c:crossAx val="238305920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6370,7 +6370,7 @@
   <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -7605,7 +7605,7 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B82">
         <v>86.5</v>
@@ -7628,7 +7628,7 @@
         <v>10</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -7636,7 +7636,7 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -7649,7 +7649,7 @@
         <v>7</v>
       </c>
       <c r="B87" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -7657,7 +7657,7 @@
         <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
